--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.36411510710805</v>
+        <v>1.819052333333333</v>
       </c>
       <c r="H2">
-        <v>1.36411510710805</v>
+        <v>5.457157</v>
       </c>
       <c r="I2">
-        <v>0.02210918182207909</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="J2">
-        <v>0.02210918182207909</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0646303166751848</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N2">
-        <v>0.0646303166751848</v>
+        <v>0.362231</v>
       </c>
       <c r="O2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q2">
-        <v>0.08816319135379691</v>
+        <v>0.2196390485852222</v>
       </c>
       <c r="R2">
-        <v>0.08816319135379691</v>
+        <v>1.976751437267</v>
       </c>
       <c r="S2">
-        <v>1.353102866608454E-05</v>
+        <v>3.126500746505783E-05</v>
       </c>
       <c r="T2">
-        <v>1.353102866608454E-05</v>
+        <v>3.126500746505783E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.36411510710805</v>
+        <v>1.819052333333333</v>
       </c>
       <c r="H3">
-        <v>1.36411510710805</v>
+        <v>5.457157</v>
       </c>
       <c r="I3">
-        <v>0.02210918182207909</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="J3">
-        <v>0.02210918182207909</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.5918509058762</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N3">
-        <v>47.5918509058762</v>
+        <v>146.580945</v>
       </c>
       <c r="O3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q3">
-        <v>64.92076279593965</v>
+        <v>88.87947000815166</v>
       </c>
       <c r="R3">
-        <v>64.92076279593965</v>
+        <v>799.9152300733649</v>
       </c>
       <c r="S3">
-        <v>0.009963848732412095</v>
+        <v>0.01265174526658467</v>
       </c>
       <c r="T3">
-        <v>0.009963848732412095</v>
+        <v>0.01265174526658467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,57 +658,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.36411510710805</v>
+        <v>1.819052333333333</v>
       </c>
       <c r="H4">
-        <v>1.36411510710805</v>
+        <v>5.457157</v>
       </c>
       <c r="I4">
-        <v>0.02210918182207909</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="J4">
-        <v>0.02210918182207909</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.946977158392</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N4">
-        <v>57.946977158392</v>
+        <v>185.724758</v>
       </c>
       <c r="O4">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P4">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q4">
-        <v>79.04634695300763</v>
+        <v>112.6143514658896</v>
       </c>
       <c r="R4">
-        <v>79.04634695300763</v>
+        <v>1013.529163193006</v>
       </c>
       <c r="S4">
-        <v>0.01213180206100091</v>
+        <v>0.01603033960460606</v>
       </c>
       <c r="T4">
-        <v>0.01213180206100091</v>
+        <v>0.01603033960460606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.00374970768</v>
+        <v>1.819052333333333</v>
       </c>
       <c r="H5">
-        <v>56.00374970768</v>
+        <v>5.457157</v>
       </c>
       <c r="I5">
-        <v>0.9076925242989993</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="J5">
-        <v>0.9076925242989993</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0646303166751848</v>
+        <v>0.05287333333333333</v>
       </c>
       <c r="N5">
-        <v>0.0646303166751848</v>
+        <v>0.15862</v>
       </c>
       <c r="O5">
-        <v>0.0006120094707698289</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="P5">
-        <v>0.0006120094707698289</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="Q5">
-        <v>3.619540078605147</v>
+        <v>0.09617936037111111</v>
       </c>
       <c r="R5">
-        <v>3.619540078605147</v>
+        <v>0.86561424334</v>
       </c>
       <c r="S5">
-        <v>0.0005555164214179606</v>
+        <v>1.369086434928947E-05</v>
       </c>
       <c r="T5">
-        <v>0.0005555164214179606</v>
+        <v>1.369086434928947E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.00374970768</v>
+        <v>56.85979966666667</v>
       </c>
       <c r="H6">
-        <v>56.00374970768</v>
+        <v>170.579399</v>
       </c>
       <c r="I6">
-        <v>0.9076925242989993</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="J6">
-        <v>0.9076925242989993</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.5918509058762</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N6">
-        <v>47.5918509058762</v>
+        <v>0.362231</v>
       </c>
       <c r="O6">
-        <v>0.4506656470870311</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P6">
-        <v>0.4506656470870311</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q6">
-        <v>2665.322106257915</v>
+        <v>6.865460697685444</v>
       </c>
       <c r="R6">
-        <v>2665.322106257915</v>
+        <v>61.789146279169</v>
       </c>
       <c r="S6">
-        <v>0.4090658388192692</v>
+        <v>0.0009772792285653645</v>
       </c>
       <c r="T6">
-        <v>0.4090658388192692</v>
+        <v>0.0009772792285653645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.00374970768</v>
+        <v>56.85979966666667</v>
       </c>
       <c r="H7">
-        <v>56.00374970768</v>
+        <v>170.579399</v>
       </c>
       <c r="I7">
-        <v>0.9076925242989993</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="J7">
-        <v>0.9076925242989993</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.946977158392</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N7">
-        <v>57.946977158392</v>
+        <v>146.580945</v>
       </c>
       <c r="O7">
-        <v>0.5487223434421992</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P7">
-        <v>0.5487223434421992</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q7">
-        <v>3245.248005095236</v>
+        <v>2778.187722550229</v>
       </c>
       <c r="R7">
-        <v>3245.248005095236</v>
+        <v>25003.68950295206</v>
       </c>
       <c r="S7">
-        <v>0.4980711690583122</v>
+        <v>0.3954672925618793</v>
       </c>
       <c r="T7">
-        <v>0.4980711690583122</v>
+        <v>0.3954672925618793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.58526863279319</v>
+        <v>56.85979966666667</v>
       </c>
       <c r="H8">
-        <v>1.58526863279319</v>
+        <v>170.579399</v>
       </c>
       <c r="I8">
-        <v>0.02569357399286333</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="J8">
-        <v>0.02569357399286333</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0646303166751848</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N8">
-        <v>0.0646303166751848</v>
+        <v>185.724758</v>
       </c>
       <c r="O8">
-        <v>0.0006120094707698289</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P8">
-        <v>0.0006120094707698289</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q8">
-        <v>0.1024564137526611</v>
+        <v>3520.09084434005</v>
       </c>
       <c r="R8">
-        <v>0.1024564137526611</v>
+        <v>31680.81759906045</v>
       </c>
       <c r="S8">
-        <v>1.572471062155772E-05</v>
+        <v>0.5010751377538892</v>
       </c>
       <c r="T8">
-        <v>1.572471062155772E-05</v>
+        <v>0.5010751377538892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.58526863279319</v>
+        <v>56.85979966666667</v>
       </c>
       <c r="H9">
-        <v>1.58526863279319</v>
+        <v>170.579399</v>
       </c>
       <c r="I9">
-        <v>0.02569357399286333</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="J9">
-        <v>0.02569357399286333</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>47.5918509058762</v>
+        <v>0.05287333333333333</v>
       </c>
       <c r="N9">
-        <v>47.5918509058762</v>
+        <v>0.15862</v>
       </c>
       <c r="O9">
-        <v>0.4506656470870311</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="P9">
-        <v>0.4506656470870311</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="Q9">
-        <v>75.4458684176557</v>
+        <v>3.006367141042223</v>
       </c>
       <c r="R9">
-        <v>75.4458684176557</v>
+        <v>27.05730426938</v>
       </c>
       <c r="S9">
-        <v>0.01157921114947226</v>
+        <v>0.0004279479979213213</v>
       </c>
       <c r="T9">
-        <v>0.01157921114947226</v>
+        <v>0.0004279479979213213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.58526863279319</v>
+        <v>1.611504</v>
       </c>
       <c r="H10">
-        <v>1.58526863279319</v>
+        <v>4.834512</v>
       </c>
       <c r="I10">
-        <v>0.02569357399286333</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="J10">
-        <v>0.02569357399286333</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.946977158392</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N10">
-        <v>57.946977158392</v>
+        <v>0.362231</v>
       </c>
       <c r="O10">
-        <v>0.5487223434421992</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P10">
-        <v>0.5487223434421992</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q10">
-        <v>91.8615252543823</v>
+        <v>0.194578901808</v>
       </c>
       <c r="R10">
-        <v>91.8615252543823</v>
+        <v>1.751210116272</v>
       </c>
       <c r="S10">
-        <v>0.01409863813276951</v>
+        <v>2.769776529608946E-05</v>
       </c>
       <c r="T10">
-        <v>0.01409863813276951</v>
+        <v>2.769776529608946E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.76621718155702</v>
+        <v>1.611504</v>
       </c>
       <c r="H11">
-        <v>1.76621718155702</v>
+        <v>4.834512</v>
       </c>
       <c r="I11">
-        <v>0.02862633556424</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="J11">
-        <v>0.02862633556424</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0646303166751848</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N11">
-        <v>0.0646303166751848</v>
+        <v>146.580945</v>
       </c>
       <c r="O11">
-        <v>0.0006120094707698289</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P11">
-        <v>0.0006120094707698289</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q11">
-        <v>0.1141511757611826</v>
+        <v>78.73859306375999</v>
       </c>
       <c r="R11">
-        <v>0.1141511757611826</v>
+        <v>708.64733757384</v>
       </c>
       <c r="S11">
-        <v>1.751958847875005E-05</v>
+        <v>0.01120821964848121</v>
       </c>
       <c r="T11">
-        <v>1.751958847875005E-05</v>
+        <v>0.01120821964848121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.76621718155702</v>
+        <v>1.611504</v>
       </c>
       <c r="H12">
-        <v>1.76621718155702</v>
+        <v>4.834512</v>
       </c>
       <c r="I12">
-        <v>0.02862633556424</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="J12">
-        <v>0.02862633556424</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.5918509058762</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N12">
-        <v>47.5918509058762</v>
+        <v>185.724758</v>
       </c>
       <c r="O12">
-        <v>0.4506656470870311</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P12">
-        <v>0.4506656470870311</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q12">
-        <v>84.05754477205858</v>
+        <v>99.76539680534401</v>
       </c>
       <c r="R12">
-        <v>84.05754477205858</v>
+        <v>897.888571248096</v>
       </c>
       <c r="S12">
-        <v>0.01290090604078871</v>
+        <v>0.01420132665828439</v>
       </c>
       <c r="T12">
-        <v>0.01290090604078871</v>
+        <v>0.01420132665828439</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.76621718155702</v>
+        <v>1.611504</v>
       </c>
       <c r="H13">
-        <v>1.76621718155702</v>
+        <v>4.834512</v>
       </c>
       <c r="I13">
-        <v>0.02862633556424</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="J13">
-        <v>0.02862633556424</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>57.946977158392</v>
+        <v>0.05287333333333333</v>
       </c>
       <c r="N13">
-        <v>57.946977158392</v>
+        <v>0.15862</v>
       </c>
       <c r="O13">
-        <v>0.5487223434421992</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="P13">
-        <v>0.5487223434421992</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="Q13">
-        <v>102.3469466764441</v>
+        <v>0.08520558816</v>
       </c>
       <c r="R13">
-        <v>102.3469466764441</v>
+        <v>0.7668502934400001</v>
       </c>
       <c r="S13">
-        <v>0.01570790993497254</v>
+        <v>1.212877840733043E-05</v>
       </c>
       <c r="T13">
-        <v>0.01570790993497254</v>
+        <v>1.212877840733043E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.979680935466806</v>
+        <v>1.78513</v>
       </c>
       <c r="H14">
-        <v>0.979680935466806</v>
+        <v>5.35539</v>
       </c>
       <c r="I14">
-        <v>0.01587838432181844</v>
+        <v>0.0281913286945349</v>
       </c>
       <c r="J14">
-        <v>0.01587838432181844</v>
+        <v>0.0281913286945349</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0646303166751848</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N14">
-        <v>0.0646303166751848</v>
+        <v>0.362231</v>
       </c>
       <c r="O14">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P14">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q14">
-        <v>0.06331708909986096</v>
+        <v>0.2155431416766666</v>
       </c>
       <c r="R14">
-        <v>0.06331708909986096</v>
+        <v>1.93988827509</v>
       </c>
       <c r="S14">
-        <v>9.71772158547605E-06</v>
+        <v>3.068196651265412E-05</v>
       </c>
       <c r="T14">
-        <v>9.71772158547605E-06</v>
+        <v>3.068196651265412E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,57 +1340,57 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.979680935466806</v>
+        <v>1.78513</v>
       </c>
       <c r="H15">
-        <v>0.979680935466806</v>
+        <v>5.35539</v>
       </c>
       <c r="I15">
-        <v>0.01587838432181844</v>
+        <v>0.0281913286945349</v>
       </c>
       <c r="J15">
-        <v>0.01587838432181844</v>
+        <v>0.0281913286945349</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.5918509058762</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N15">
-        <v>47.5918509058762</v>
+        <v>146.580945</v>
       </c>
       <c r="O15">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P15">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q15">
-        <v>46.62482901606555</v>
+        <v>87.22201411594997</v>
       </c>
       <c r="R15">
-        <v>46.62482901606555</v>
+        <v>784.9981270435499</v>
       </c>
       <c r="S15">
-        <v>0.007155842345088876</v>
+        <v>0.01241581103186419</v>
       </c>
       <c r="T15">
-        <v>0.007155842345088876</v>
+        <v>0.01241581103186419</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,362 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.979680935466806</v>
+        <v>1.78513</v>
       </c>
       <c r="H16">
-        <v>0.979680935466806</v>
+        <v>5.35539</v>
       </c>
       <c r="I16">
-        <v>0.01587838432181844</v>
+        <v>0.0281913286945349</v>
       </c>
       <c r="J16">
-        <v>0.01587838432181844</v>
+        <v>0.0281913286945349</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.946977158392</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N16">
-        <v>57.946977158392</v>
+        <v>185.724758</v>
       </c>
       <c r="O16">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P16">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q16">
-        <v>56.76954879000711</v>
+        <v>110.5142790828467</v>
       </c>
       <c r="R16">
-        <v>56.76954879000711</v>
+        <v>994.62851174562</v>
       </c>
       <c r="S16">
-        <v>0.008712824255144087</v>
+        <v>0.01573140014390483</v>
       </c>
       <c r="T16">
-        <v>0.008712824255144087</v>
+        <v>0.01573140014390484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.78513</v>
+      </c>
+      <c r="H17">
+        <v>5.35539</v>
+      </c>
+      <c r="I17">
+        <v>0.0281913286945349</v>
+      </c>
+      <c r="J17">
+        <v>0.0281913286945349</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.15862</v>
+      </c>
+      <c r="O17">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P17">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q17">
+        <v>0.09438577353333333</v>
+      </c>
+      <c r="R17">
+        <v>0.8494719618000001</v>
+      </c>
+      <c r="S17">
+        <v>1.343555225322294E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.343555225322294E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.246467333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.739402</v>
+      </c>
+      <c r="I18">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="J18">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1207436666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.362231</v>
+      </c>
+      <c r="O18">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="P18">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="Q18">
+        <v>0.1505030362068889</v>
+      </c>
+      <c r="R18">
+        <v>1.354527325862</v>
+      </c>
+      <c r="S18">
+        <v>2.142368845991643E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.142368845991643E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.246467333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.739402</v>
+      </c>
+      <c r="I19">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="J19">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>48.86031499999999</v>
+      </c>
+      <c r="N19">
+        <v>146.580945</v>
+      </c>
+      <c r="O19">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="P19">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="Q19">
+        <v>60.90278654387666</v>
+      </c>
+      <c r="R19">
+        <v>548.12507889489</v>
+      </c>
+      <c r="S19">
+        <v>0.008669342214885379</v>
+      </c>
+      <c r="T19">
+        <v>0.008669342214885379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.246467333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.739402</v>
+      </c>
+      <c r="I20">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="J20">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N20">
+        <v>185.724758</v>
+      </c>
+      <c r="O20">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P20">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q20">
+        <v>77.16661461274623</v>
+      </c>
+      <c r="R20">
+        <v>694.4995315147161</v>
+      </c>
+      <c r="S20">
+        <v>0.01098445288969021</v>
+      </c>
+      <c r="T20">
+        <v>0.01098445288969021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.246467333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.739402</v>
+      </c>
+      <c r="I21">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="J21">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.15862</v>
+      </c>
+      <c r="O21">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P21">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q21">
+        <v>0.06590488280444445</v>
+      </c>
+      <c r="R21">
+        <v>0.59314394524</v>
+      </c>
+      <c r="S21">
+        <v>9.38137670026018E-06</v>
+      </c>
+      <c r="T21">
+        <v>9.38137670026018E-06</v>
       </c>
     </row>
   </sheetData>
